--- a/Licenta/wwwroot/UploadStudents/students.xlsx
+++ b/Licenta/wwwroot/UploadStudents/students.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="76">
   <si>
     <t>Faculty</t>
   </si>
@@ -234,6 +234,24 @@
   </si>
   <si>
     <t>Business Administration on Commerce, Tourism, Services, Commodity Science and Quality Managemen</t>
+  </si>
+  <si>
+    <t>TC 419786</t>
+  </si>
+  <si>
+    <t>Eliza Ioana</t>
+  </si>
+  <si>
+    <t>Țuțuianu</t>
+  </si>
+  <si>
+    <t>Beatrice</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>AccomodationRequestId</t>
   </si>
 </sst>
 </file>
@@ -553,15 +571,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:Q81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +635,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -666,8 +691,11 @@
       <c r="Q2" s="1">
         <v>760774349</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -719,8 +747,11 @@
       <c r="Q3" s="1">
         <v>770174946</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -772,8 +803,11 @@
       <c r="Q4" s="1">
         <v>759467970</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -825,8 +859,11 @@
       <c r="Q5" s="1">
         <v>769957145</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -878,8 +915,11 @@
       <c r="Q6" s="1">
         <v>759445392</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -931,8 +971,11 @@
       <c r="Q7" s="1">
         <v>761786461</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -984,8 +1027,11 @@
       <c r="Q8" s="1">
         <v>796358433</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1037,8 +1083,11 @@
       <c r="Q9" s="1">
         <v>743760582</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1090,8 +1139,11 @@
       <c r="Q10" s="1">
         <v>728535953</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1143,8 +1195,11 @@
       <c r="Q11" s="1">
         <v>704629981</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1196,8 +1251,11 @@
       <c r="Q12" s="1">
         <v>785288829</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1249,8 +1307,11 @@
       <c r="Q13" s="1">
         <v>700871711</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1302,8 +1363,11 @@
       <c r="Q14" s="1">
         <v>742435019</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1355,8 +1419,11 @@
       <c r="Q15" s="1">
         <v>771481015</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1408,8 +1475,11 @@
       <c r="Q16" s="1">
         <v>739003447</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1461,8 +1531,11 @@
       <c r="Q17" s="1">
         <v>792231638</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1514,8 +1587,11 @@
       <c r="Q18" s="1">
         <v>706659925</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1567,8 +1643,11 @@
       <c r="Q19" s="1">
         <v>728721865</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1620,8 +1699,11 @@
       <c r="Q20" s="1">
         <v>761600901</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1673,8 +1755,11 @@
       <c r="Q21" s="1">
         <v>753937164</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1726,8 +1811,11 @@
       <c r="Q22" s="1">
         <v>796012811</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1779,8 +1867,11 @@
       <c r="Q23" s="1">
         <v>725987642</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1832,8 +1923,11 @@
       <c r="Q24" s="1">
         <v>796551044</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1885,8 +1979,11 @@
       <c r="Q25" s="1">
         <v>747794607</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1938,8 +2035,11 @@
       <c r="Q26" s="1">
         <v>752681672</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1991,8 +2091,11 @@
       <c r="Q27" s="1">
         <v>768199309</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2044,8 +2147,11 @@
       <c r="Q28" s="1">
         <v>778342136</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2097,8 +2203,11 @@
       <c r="Q29" s="1">
         <v>703012113</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2150,8 +2259,11 @@
       <c r="Q30" s="1">
         <v>782727095</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2203,8 +2315,11 @@
       <c r="Q31" s="1">
         <v>762631615</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2256,8 +2371,11 @@
       <c r="Q32" s="1">
         <v>745917449</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2309,8 +2427,11 @@
       <c r="Q33" s="1">
         <v>718488115</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2362,8 +2483,11 @@
       <c r="Q34" s="1">
         <v>771160676</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2415,8 +2539,11 @@
       <c r="Q35" s="1">
         <v>716118059</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2468,8 +2595,11 @@
       <c r="Q36" s="1">
         <v>732410471</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2521,8 +2651,11 @@
       <c r="Q37" s="1">
         <v>712338004</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2574,8 +2707,11 @@
       <c r="Q38" s="1">
         <v>786777935</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2627,8 +2763,11 @@
       <c r="Q39" s="1">
         <v>777816812</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2680,8 +2819,11 @@
       <c r="Q40" s="1">
         <v>706346985</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2733,8 +2875,11 @@
       <c r="Q41" s="1">
         <v>768962776</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2786,8 +2931,11 @@
       <c r="Q42" s="1">
         <v>728766973</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2839,8 +2987,11 @@
       <c r="Q43" s="1">
         <v>719705414</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -2892,8 +3043,11 @@
       <c r="Q44" s="1">
         <v>767026886</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2945,8 +3099,11 @@
       <c r="Q45" s="1">
         <v>732145630</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -2998,8 +3155,11 @@
       <c r="Q46" s="1">
         <v>721075165</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3051,8 +3211,11 @@
       <c r="Q47" s="1">
         <v>796440384</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -3104,8 +3267,11 @@
       <c r="Q48" s="1">
         <v>724487804</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3157,8 +3323,11 @@
       <c r="Q49" s="1">
         <v>735721984</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -3210,8 +3379,11 @@
       <c r="Q50" s="1">
         <v>716845073</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -3263,8 +3435,11 @@
       <c r="Q51" s="1">
         <v>772590045</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3316,8 +3491,11 @@
       <c r="Q52" s="1">
         <v>747466002</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -3369,8 +3547,11 @@
       <c r="Q53" s="1">
         <v>725151194</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3422,8 +3603,11 @@
       <c r="Q54" s="1">
         <v>700108796</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3475,8 +3659,11 @@
       <c r="Q55" s="1">
         <v>715144490</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3528,8 +3715,11 @@
       <c r="Q56" s="1">
         <v>791536248</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3581,8 +3771,11 @@
       <c r="Q57" s="1">
         <v>787413304</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -3634,8 +3827,11 @@
       <c r="Q58" s="1">
         <v>754254516</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -3687,8 +3883,11 @@
       <c r="Q59" s="1">
         <v>798953739</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -3740,8 +3939,11 @@
       <c r="Q60" s="1">
         <v>705251367</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -3793,8 +3995,11 @@
       <c r="Q61" s="1">
         <v>757452581</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -3846,8 +4051,11 @@
       <c r="Q62" s="1">
         <v>752879058</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3899,8 +4107,11 @@
       <c r="Q63" s="1">
         <v>719678557</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -3952,8 +4163,11 @@
       <c r="Q64" s="1">
         <v>717292933</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4005,8 +4219,11 @@
       <c r="Q65" s="1">
         <v>723067886</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4058,8 +4275,11 @@
       <c r="Q66" s="1">
         <v>723309656</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -4111,8 +4331,11 @@
       <c r="Q67" s="1">
         <v>785065885</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4164,8 +4387,11 @@
       <c r="Q68" s="1">
         <v>756111702</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -4217,8 +4443,11 @@
       <c r="Q69" s="1">
         <v>722992279</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4270,8 +4499,11 @@
       <c r="Q70" s="1">
         <v>731011678</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4323,8 +4555,11 @@
       <c r="Q71" s="1">
         <v>785693882</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -4376,8 +4611,11 @@
       <c r="Q72" s="1">
         <v>786855710</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -4429,8 +4667,11 @@
       <c r="Q73" s="1">
         <v>729152109</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4482,8 +4723,11 @@
       <c r="Q74" s="1">
         <v>797578410</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -4535,8 +4779,11 @@
       <c r="Q75" s="1">
         <v>758265287</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -4588,8 +4835,11 @@
       <c r="Q76" s="1">
         <v>784073268</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -4641,8 +4891,11 @@
       <c r="Q77" s="1">
         <v>777024682</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -4694,8 +4947,11 @@
       <c r="Q78" s="1">
         <v>760945392</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -4747,8 +5003,11 @@
       <c r="Q79" s="1">
         <v>737718304</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -4800,11 +5059,118 @@
       <c r="Q80" s="1">
         <v>794020671</v>
       </c>
-    </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D81" s="1"/>
-      <c r="L81" s="2"/>
-      <c r="Q81" s="1"/>
+      <c r="R80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2971201360023</v>
+      </c>
+      <c r="E81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G81" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>10</v>
+      </c>
+      <c r="M81" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" t="s">
+        <v>41</v>
+      </c>
+      <c r="O81">
+        <v>1076</v>
+      </c>
+      <c r="P81">
+        <v>180</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>748318768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82">
+        <v>456382</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2123456789123</v>
+      </c>
+      <c r="E82" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>10</v>
+      </c>
+      <c r="M82" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" t="s">
+        <v>41</v>
+      </c>
+      <c r="O82">
+        <v>1076</v>
+      </c>
+      <c r="P82">
+        <v>180</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>743456789</v>
+      </c>
+      <c r="R82">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Licenta/wwwroot/UploadStudents/students.xlsx
+++ b/Licenta/wwwroot/UploadStudents/students.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="76">
   <si>
     <t>Faculty</t>
   </si>
@@ -573,12 +573,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="86.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -670,8 +671,8 @@
       <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
-        <v>25</v>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>3.8561892315652546</v>
@@ -779,8 +780,8 @@
       <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
@@ -947,11 +948,11 @@
       <c r="I7" t="s">
         <v>53</v>
       </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0.74881378659235609</v>
@@ -1003,11 +1004,11 @@
       <c r="I8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>9.4747568738920194</v>
@@ -1059,8 +1060,8 @@
       <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" t="s">
-        <v>25</v>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>24</v>
@@ -1115,11 +1116,11 @@
       <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0.36575698329311512</v>
@@ -1284,7 +1285,7 @@
         <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
@@ -1340,7 +1341,7 @@
         <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
         <v>24</v>
@@ -1452,10 +1453,10 @@
         <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" s="2">
         <v>7.6076517411623135</v>
@@ -1511,7 +1512,7 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17" s="2">
         <v>0.29697075566600395</v>
@@ -1567,7 +1568,7 @@
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L18" s="2">
         <v>3.3859748726138248</v>
@@ -1623,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L19" s="2">
         <v>6.020957102882214</v>
@@ -1679,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="2">
         <v>5.5884168810006827</v>
@@ -1791,7 +1792,7 @@
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L22" s="2">
         <v>7.6543717080593821</v>
@@ -1844,10 +1845,10 @@
         <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L23" s="2">
         <v>8.3949132114996043</v>
@@ -1900,10 +1901,10 @@
         <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L24" s="2">
         <v>5.594066466175315</v>
@@ -1959,7 +1960,7 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L25" s="2">
         <v>8.2907029603776685</v>
@@ -2015,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L26" s="2">
         <v>2.8282209728952443</v>
@@ -2124,7 +2125,7 @@
         <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
         <v>24</v>
@@ -2183,7 +2184,7 @@
         <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L29" s="2">
         <v>6.8224770768228726</v>
@@ -2295,7 +2296,7 @@
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L31" s="2">
         <v>5.7110761308871707</v>
@@ -2351,7 +2352,7 @@
         <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L32" s="2">
         <v>0.74082930467692765</v>
@@ -2404,7 +2405,7 @@
         <v>35</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
         <v>24</v>
@@ -2460,10 +2461,10 @@
         <v>53</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L34" s="2">
         <v>6.5727133174514121</v>
@@ -2516,7 +2517,7 @@
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
         <v>24</v>
@@ -2572,10 +2573,10 @@
         <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L36" s="2">
         <v>7.104019850425046</v>
@@ -2628,7 +2629,7 @@
         <v>35</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
         <v>24</v>
@@ -2743,7 +2744,7 @@
         <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L39" s="2">
         <v>2.0911071822648921</v>
@@ -2799,7 +2800,7 @@
         <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L40" s="2">
         <v>6.1977899946634549</v>
@@ -2852,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L41" s="2">
         <v>0.23343269754909635</v>
@@ -2908,10 +2909,10 @@
         <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L42" s="2">
         <v>6.1974067241184629</v>
@@ -2964,7 +2965,7 @@
         <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
         <v>24</v>
@@ -3076,7 +3077,7 @@
         <v>35</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K45" t="s">
         <v>25</v>
@@ -3132,7 +3133,7 @@
         <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K46" t="s">
         <v>24</v>
@@ -3244,7 +3245,7 @@
         <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K48" t="s">
         <v>25</v>
@@ -3580,10 +3581,10 @@
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
       </c>
       <c r="L54" s="2">
         <v>1.3419602325286895</v>
@@ -3636,10 +3637,10 @@
         <v>35</v>
       </c>
       <c r="J55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
       </c>
       <c r="L55" s="2">
         <v>2.6072067175843694</v>
@@ -3692,10 +3693,10 @@
         <v>35</v>
       </c>
       <c r="J56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
       </c>
       <c r="L56" s="2">
         <v>3.3731303849579977</v>
@@ -3750,8 +3751,8 @@
       <c r="J57" t="s">
         <v>24</v>
       </c>
-      <c r="K57" t="s">
-        <v>25</v>
+      <c r="K57" t="b">
+        <v>0</v>
       </c>
       <c r="L57" s="2">
         <v>6.3710979574318234</v>
@@ -3806,8 +3807,8 @@
       <c r="J58" t="s">
         <v>24</v>
       </c>
-      <c r="K58" t="s">
-        <v>25</v>
+      <c r="K58" t="b">
+        <v>0</v>
       </c>
       <c r="L58" s="2">
         <v>8.2842705812888422</v>
@@ -3862,8 +3863,8 @@
       <c r="J59" t="s">
         <v>24</v>
       </c>
-      <c r="K59" t="s">
-        <v>24</v>
+      <c r="K59" t="b">
+        <v>0</v>
       </c>
       <c r="L59" s="2">
         <v>8.446664257912623</v>
@@ -3916,10 +3917,10 @@
         <v>53</v>
       </c>
       <c r="J60" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
       </c>
       <c r="L60" s="2">
         <v>0.54880846152468576</v>
@@ -3972,10 +3973,10 @@
         <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>25</v>
-      </c>
-      <c r="K61" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
       </c>
       <c r="L61" s="2">
         <v>5.471224493767175</v>
@@ -4028,10 +4029,10 @@
         <v>35</v>
       </c>
       <c r="J62" t="s">
-        <v>25</v>
-      </c>
-      <c r="K62" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
       </c>
       <c r="L62" s="2">
         <v>1.26549150538255</v>
@@ -4084,10 +4085,10 @@
         <v>35</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
-      </c>
-      <c r="K63" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
       </c>
       <c r="L63" s="2">
         <v>9.3819089602538845</v>
@@ -4142,8 +4143,8 @@
       <c r="J64" t="s">
         <v>24</v>
       </c>
-      <c r="K64" t="s">
-        <v>25</v>
+      <c r="K64" t="b">
+        <v>0</v>
       </c>
       <c r="L64" s="2">
         <v>1.4682815119859904</v>
@@ -4196,10 +4197,10 @@
         <v>35</v>
       </c>
       <c r="J65" t="s">
-        <v>25</v>
-      </c>
-      <c r="K65" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
       </c>
       <c r="L65" s="2">
         <v>7.1480805705274157</v>
@@ -4252,10 +4253,10 @@
         <v>35</v>
       </c>
       <c r="J66" t="s">
-        <v>25</v>
-      </c>
-      <c r="K66" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
       </c>
       <c r="L66" s="2">
         <v>5.108801940961861</v>
@@ -4310,8 +4311,8 @@
       <c r="J67" t="s">
         <v>24</v>
       </c>
-      <c r="K67" t="s">
-        <v>25</v>
+      <c r="K67" t="b">
+        <v>0</v>
       </c>
       <c r="L67" s="2">
         <v>8.2569722652223483</v>
@@ -4366,8 +4367,8 @@
       <c r="J68" t="s">
         <v>24</v>
       </c>
-      <c r="K68" t="s">
-        <v>24</v>
+      <c r="K68" t="b">
+        <v>0</v>
       </c>
       <c r="L68" s="2">
         <v>9.5546576766246076</v>
@@ -4420,10 +4421,10 @@
         <v>53</v>
       </c>
       <c r="J69" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
       </c>
       <c r="L69" s="2">
         <v>1.2963243088844012</v>
@@ -4478,8 +4479,8 @@
       <c r="J70" t="s">
         <v>24</v>
       </c>
-      <c r="K70" t="s">
-        <v>25</v>
+      <c r="K70" t="b">
+        <v>0</v>
       </c>
       <c r="L70" s="2">
         <v>8.8082981273134227</v>
@@ -4534,8 +4535,8 @@
       <c r="J71" t="s">
         <v>24</v>
       </c>
-      <c r="K71" t="s">
-        <v>25</v>
+      <c r="K71" t="b">
+        <v>0</v>
       </c>
       <c r="L71" s="2">
         <v>5.6633012781255943</v>
@@ -4590,8 +4591,8 @@
       <c r="J72" t="s">
         <v>24</v>
       </c>
-      <c r="K72" t="s">
-        <v>24</v>
+      <c r="K72" t="b">
+        <v>0</v>
       </c>
       <c r="L72" s="2">
         <v>4.6007192415830991</v>
@@ -4644,10 +4645,10 @@
         <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>25</v>
-      </c>
-      <c r="K73" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
       </c>
       <c r="L73" s="2">
         <v>7.2225512492751944</v>
@@ -4700,10 +4701,10 @@
         <v>35</v>
       </c>
       <c r="J74" t="s">
-        <v>25</v>
-      </c>
-      <c r="K74" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
       </c>
       <c r="L74" s="2">
         <v>9.8499269318154958</v>
@@ -4756,10 +4757,10 @@
         <v>53</v>
       </c>
       <c r="J75" t="s">
-        <v>25</v>
-      </c>
-      <c r="K75" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
       </c>
       <c r="L75" s="2">
         <v>5.1322246456409095</v>
@@ -4814,8 +4815,8 @@
       <c r="J76" t="s">
         <v>24</v>
       </c>
-      <c r="K76" t="s">
-        <v>24</v>
+      <c r="K76" t="b">
+        <v>0</v>
       </c>
       <c r="L76" s="2">
         <v>2.2782380763580146</v>
@@ -4870,8 +4871,8 @@
       <c r="J77" t="s">
         <v>24</v>
       </c>
-      <c r="K77" t="s">
-        <v>25</v>
+      <c r="K77" t="b">
+        <v>0</v>
       </c>
       <c r="L77" s="2">
         <v>7.1717454139473862</v>
@@ -4924,10 +4925,10 @@
         <v>23</v>
       </c>
       <c r="J78" t="s">
-        <v>25</v>
-      </c>
-      <c r="K78" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
       </c>
       <c r="L78" s="2">
         <v>8.5152012514388371</v>
@@ -4980,10 +4981,10 @@
         <v>53</v>
       </c>
       <c r="J79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K79" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
       </c>
       <c r="L79" s="2">
         <v>9.3874422222257046</v>
@@ -5038,8 +5039,8 @@
       <c r="J80" t="s">
         <v>25</v>
       </c>
-      <c r="K80" t="s">
-        <v>25</v>
+      <c r="K80" t="b">
+        <v>0</v>
       </c>
       <c r="L80" s="2">
         <v>6.2515591117670226</v>
@@ -5070,20 +5071,20 @@
       <c r="B81" t="s">
         <v>56</v>
       </c>
-      <c r="C81" t="s">
-        <v>70</v>
+      <c r="C81">
+        <v>456382</v>
       </c>
       <c r="D81" s="1">
-        <v>2971201360023</v>
+        <v>2123456789123</v>
       </c>
       <c r="E81" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G81" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H81" t="s">
         <v>22</v>
@@ -5113,7 +5114,10 @@
         <v>180</v>
       </c>
       <c r="Q81" s="1">
-        <v>748318768</v>
+        <v>743456789</v>
+      </c>
+      <c r="R81">
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
@@ -5123,20 +5127,20 @@
       <c r="B82" t="s">
         <v>56</v>
       </c>
-      <c r="C82">
-        <v>456382</v>
+      <c r="C82" t="s">
+        <v>70</v>
       </c>
       <c r="D82" s="1">
-        <v>2123456789123</v>
+        <v>2971201360023</v>
       </c>
       <c r="E82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G82" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H82" t="s">
         <v>22</v>
@@ -5166,10 +5170,7 @@
         <v>180</v>
       </c>
       <c r="Q82" s="1">
-        <v>743456789</v>
-      </c>
-      <c r="R82">
-        <v>80</v>
+        <v>748318768</v>
       </c>
     </row>
   </sheetData>
